--- a/output.xlsx
+++ b/output.xlsx
@@ -1,85 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/10d5f26f0755ba94/BBB-analysis/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_6A69D6BF8720D913C2FA68B3423088B35299F64A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{492F82C3-1FEF-49C1-B456-74C5B0F1EAB9}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
-  <si>
-    <t>original</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>RT @eslomarques: Eu assim vendo eles curtindo um show da Luisa e eu em casa  #BBB22 https://t.co/XKOFG0y2tp</t>
-  </si>
-  <si>
-    <t>assim vendo curtindo show luisa casa</t>
-  </si>
-  <si>
-    <t>RT @eliezervidal: Eu odeio viver num mundo em que Pedro, do alto do seu elitismo, cegueira social e explosoes seletivas e enaltecido como u...</t>
-  </si>
-  <si>
-    <t>odeio viver mundo pedro alto elitismo cegueira social explosoes seletivas enaltecido u</t>
-  </si>
-  <si>
-    <t>RT @CassioFLLima: O Arthur chamando os Lollipops pra curtir a festa. Kuuuuuaaa #BBB22</t>
-  </si>
-  <si>
-    <t>arthur chamando lollipops curtir festa kuuuuuaaa</t>
-  </si>
-  <si>
-    <t>esse papo da lais e eslo e viny???
-#bbb22</t>
-  </si>
-  <si>
-    <t>papo lais eslo viny</t>
-  </si>
-  <si>
-    <t>Lollipop disputando quem esta mais lascado #BBB22</t>
-  </si>
-  <si>
-    <t>lollipop disputando lascado</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -418,95 +420,2656 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="132" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>RT @canalespiadinha: Luisa Sonza recita a frase marcante da eterna e inesquecivel Marilia Mendonca: "O amor nao e uma necessidade, e uma es...</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>RT @canalespiadinha: Luisa Sonza recita a frase marcante da eterna e inesquecivel Marilia Mendonca: "O amor nao e uma necessidade, e uma es...</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>luisa sonza recita frase marcante eterna inesquecivel marilia mendonca amor necessidade es</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>RT @paiva: A JESSI CHORANDO E A LINA- #bbb22 https://t.co/TPOmnH1OuG</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>RT @paiva: A JESSI CHORANDO E A LINA- #bbb22 https://t.co/TPOmnH1OuG</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>jessi chorando lina</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>RT @eliezervidal: Eu odeio viver num mundo em que Pedro, do alto do seu elitismo, cegueira social e explosoes seletivas e enaltecido como u...</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>RT @eliezervidal: Eu odeio viver num mundo em que Pedro, do alto do seu elitismo, cegueira social e explosoes seletivas e enaltecido como u...</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>odeio viver mundo pedro alto elitismo cegueira social explosoes seletivas enaltecido u</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>RT @tracklist:  Thread dos acontecimentos da madrugada no #BBB22 
+O que aconteceu na festa?</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>RT @tracklist:  Thread dos acontecimentos da madrugada no #BBB22 
+O que aconteceu na festa?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>thread acontecimentos madrugada aconteceu festa</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>RT @_alineramos: Pra torcer pela Natalia as vezes e preciso nao assistir a Natalia. #BBB22</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RT @_alineramos: Pra torcer pela Natalia as vezes e preciso nao assistir a Natalia. #BBB22</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>torcer natalia vezes preciso assistir natalia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>RT @CentralReaIity: Do nada, o PA vira pro Scooby e fala: "Mano, eu estava inteiraco" (na prova). #BBB22 https://t.co/WoWSYUTGhh</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>RT @CentralReaIity: Do nada, o PA vira pro Scooby e fala: "Mano, eu estava inteiraco" (na prova). #BBB22 https://t.co/WoWSYUTGhh</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>nada pa vira scooby fala mano inteiraco prova</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>RT @GregoMalandro: Essa sequencia  #bbb22 https://t.co/WJYT2JEfPT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>RT @GregoMalandro: Essa sequencia  #bbb22 https://t.co/WJYT2JEfPT</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>sequencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>@UOLtvefamosos ta certissimo ate pq o bbb ja tem seu campeao definido pelo Rodrigo Dourado e Boninho portanto seria... https://t.co/mKDonLgedp</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>@UOLtvefamosos ta certissimo ate pq o bbb ja tem seu campeao definido pelo Rodrigo Dourado e Boninho portanto seria... https://t.co/mKDonLgedp</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>certissimo campeao definido rodrigo dourado boninho portanto</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>RT @Derekkmt: Jade ta tao feliz ne...tbm ne..84% porem ganhando mais seguidores q o fav da casa ..morando na Globo qse...IG no terceiro mai...</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>RT @Derekkmt: Jade ta tao feliz ne...tbm ne..84% porem ganhando mais seguidores q o fav da casa ..morando na Globo qse...IG no terceiro mai...</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>jade feliz 84 porem ganhando seguidores fav casa morando globo qse ig terceiro mai</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>gnt simmm
+tudo bem que eu fiquei meio "osh e ele foi mesmo com ela doente??", mas ela surtou demais scr #bbb22 https://t.co/rTWVUAXjkK</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>gnt simmm
+tudo bem que eu fiquei meio "osh e ele foi mesmo com ela doente??", mas ela surtou demais scr #bbb22 https://t.co/rTWVUAXjkK</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>gnt simmm tudo fiquei meio osh doente surtou demais scr</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>RT @Dantinhas: Gustavo contando que participou da reuniao do lollipop hoje e que falou que Arthur e individualista e se aproxima das pessoa...</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>RT @Dantinhas: Gustavo contando que participou da reuniao do lollipop hoje e que falou que Arthur e individualista e se aproxima das pessoa...</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>gustavo contando participou reuniao lollipop hoje falou arthur individualista aproxima pessoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>RT @acervo5eslus: #MomentosEslu : a cara desse povo nem treme pra passar informacoes falsas, no momento da foto Lucas nao sabia o que tinha...</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>RT @acervo5eslus: #MomentosEslu : a cara desse povo nem treme pra passar informacoes falsas, no momento da foto Lucas nao sabia o que tinha...</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>cara povo treme passar informacoes falsas momento foto lucas sabia</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RT @bbb: Arthur mandando um beijinho em slow #RedeBBB #BBB22 https://t.co/mgdTIjfPPj</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>RT @bbb: Arthur mandando um beijinho em slow #RedeBBB #BBB22 https://t.co/mgdTIjfPPj</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>arthur mandando beijinho slow</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RT @Oliveiras3Gabis: Nao entendo essa revolta  q vejo por uma suposta final masculina. Esse camarote masculino e bom, fazer o que? As mulhe...</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>RT @Oliveiras3Gabis: Nao entendo essa revolta  q vejo por uma suposta final masculina. Esse camarote masculino e bom, fazer o que? As mulhe...</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>entendo revolta vejo suposta final masculina camarote masculino bom fazer mulhe</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>RT @bbb: E o que ja tava bom vai ficar ainda melhor!
+Pode entrar, @Liniker!!!! 
+#RedeBBB #BBB22 @luisasonza https://t.co/dKxHYp0FR2</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>RT @bbb: E o que ja tava bom vai ficar ainda melhor!
+Pode entrar, @Liniker!!!! 
+#RedeBBB #BBB22 @luisasonza https://t.co/dKxHYp0FR2</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>tava bom ficar ainda melhor pode entrar</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RT @nataliadeodato: O vip de milhoes!  #BBB22 https://t.co/uimKqBdCtf</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>RT @nataliadeodato: O vip de milhoes!  #BBB22 https://t.co/uimKqBdCtf</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>vip milhoes</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>RT @gabrielamurad19: "Ah mas era pra acontecer assim" nao, nao era. #BBB22</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>RT @gabrielamurad19: "Ah mas era pra acontecer assim" nao, nao era. #BBB22</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>acontecer assim</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>RT @CentralReaIity: Eles assim. Depois larga voto kkkk #BBB22 
+https://t.co/JbhvGjrBrq</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>RT @CentralReaIity: Eles assim. Depois larga voto kkkk #BBB22 
+https://t.co/JbhvGjrBrq</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>assim larga voto</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>RT @ZAMENZA: O Barao da Emocaozinha. #BBB22 https://t.co/M44X8H0uIY</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>RT @ZAMENZA: O Barao da Emocaozinha. #BBB22 https://t.co/M44X8H0uIY</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>barao emocaozinha</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>RT @emiisway: lucas dizendo q ta super bem kkkkkk com essa expressao aq  #bbb22 https://t.co/xFUIAGijzM</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>RT @emiisway: lucas dizendo q ta super bem kkkkkk com essa expressao aq  #bbb22 https://t.co/xFUIAGijzM</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>lucas dizendo super expressao aq</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>RT @KenSensato: Lucas e Gustavo praticando o esporte favorito deles nas festas que e falar mal do Arthur, na frente do cara se faz de parce...</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>RT @KenSensato: Lucas e Gustavo praticando o esporte favorito deles nas festas que e falar mal do Arthur, na frente do cara se faz de parce...</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>lucas gustavo praticando esporte favorito festas falar mal arthur frente cara faz parce</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>RT @bbb_storm: Gustavo se tornou membro do Lollipop e nem percebeu. Ja foi absorvido. E um loliifloper! #BBB22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>RT @bbb_storm: Gustavo se tornou membro do Lollipop e nem percebeu. Ja foi absorvido. E um loliifloper! #BBB22</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>gustavo tornou membro lollipop percebeu absorvido loliifloper</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>RT @Hanninhafluffy: Natalia e aquele tipo de "amiga" q se vc disser:"fique a vontade" por educacao na sua casa, ela ja quer mexer nas suas...</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>RT @Hanninhafluffy: Natalia e aquele tipo de "amiga" q se vc disser:"fique a vontade" por educacao na sua casa, ela ja quer mexer nas suas...</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>natalia tipo amiga disser fique vontade educacao casa mexer</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>RT @a_jessilane: Jessi falando do quanto foi significante o Tadeu ter falado na lingua de sinais no dia de seu paredao, por conta do alcanc...</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>RT @a_jessilane: Jessi falando do quanto foi significante o Tadeu ter falado na lingua de sinais no dia de seu paredao, por conta do alcanc...</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>jessi falando quanto significante tadeu falado lingua sinais dia paredao conta alcanc</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>@btsklip melancia #BBB22 https://t.co/AkpqKhCgLW</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>@btsklip melancia #BBB22 https://t.co/AkpqKhCgLW</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>melancia</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>RT @userpimenta: pra quem nao conhece a Liniker oucam zero, calmo, goela e baby 95. oucam tambem flutua do johnny  hooker. assistam "manhas...</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>RT @userpimenta: pra quem nao conhece a Liniker oucam zero, calmo, goela e baby 95. oucam tambem flutua do johnny  hooker. assistam "manhas...</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>conhece liniker oucam zero calmo goela baby 95 oucam tambem flutua johnny hooker assistam manhas</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>RT @eeuluanaa: O que aconteceu aqui??? KKKKKKKKK #BBB22 @Aguiarthur https://t.co/qwvcvMEoNQ</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>RT @eeuluanaa: O que aconteceu aqui??? KKKKKKKKK #BBB22 @Aguiarthur https://t.co/qwvcvMEoNQ</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>aconteceu kkkkkkkkk</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Eslo continua ainda com um pouco de dor no pe, mas que ela fique bem logo vai dar tudo certo, estamos com vc envian... https://t.co/X1yc81xPxR</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Eslo continua ainda com um pouco de dor no pe, mas que ela fique bem logo vai dar tudo certo, estamos com vc envian... https://t.co/X1yc81xPxR</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>eslo continua ainda pouco dor pe fique logo tudo certo envian</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>RT @Sunshin54604840: A globo ta fazendo de tudo pro povo comprar a linna hein ! Afff #bbb22</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>RT @Sunshin54604840: A globo ta fazendo de tudo pro povo comprar a linna hein ! Afff #bbb22</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>globo fazendo tudo povo comprar linna hein afff</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>RT @dgloops: ele e o melhor kkkkkkkkkkkkkk #bbb22 https://t.co/oBxQTp6dbr</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>RT @dgloops: ele e o melhor kkkkkkkkkkkkkk #bbb22 https://t.co/oBxQTp6dbr</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>melhor kkkkkkkkkkkkkk</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>RT @tracklist: 17) "O, Eslovaquia, vem pra ca. P*rra, vem, Tunisia" #BBB22 https://t.co/09EXT9EsAN</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>RT @tracklist: 17) "O, Eslovaquia, vem pra ca. P*rra, vem, Tunisia" #BBB22 https://t.co/09EXT9EsAN</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>17 eslovaquia ca p rra tunisia</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>RT @gabrielamurad19: Porra jade, como tu faz falta menina. Parece que cada dia que passa piora a saudade de nao poder de te ve la dentro. Q...</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>RT @gabrielamurad19: Porra jade, como tu faz falta menina. Parece que cada dia que passa piora a saudade de nao poder de te ve la dentro. Q...</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>porra jade faz falta menina parece dia passa piora saudade poder ve dentro</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>O irmao do Scooby falou que e normal na familia deles esse "branco" que da, essa desatencao. #RedeBBB #BBB22 #BBB22 https://t.co/sQIvmo7NLO</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>O irmao do Scooby falou que e normal na familia deles esse "branco" que da, essa desatencao. #RedeBBB #BBB22 #BBB22 https://t.co/sQIvmo7NLO</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>irmao scooby falou normal familia branco desatencao</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>RT @SonsaAbrao: Primeiro periodo da faculdade / fazendo TCC no final do curso #bbb22 https://t.co/UnXugchpMy</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>RT @SonsaAbrao: Primeiro periodo da faculdade / fazendo TCC no final do curso #bbb22 https://t.co/UnXugchpMy</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>primeiro periodo faculdade fazendo tcc final curso</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>RT @gabrielamurad19: eu NUNCA vou perdoar o BRASILEIRO. NUNCA #BBB22 https://t.co/D8UzX5MHs5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>RT @gabrielamurad19: eu NUNCA vou perdoar o BRASILEIRO. NUNCA #BBB22 https://t.co/D8UzX5MHs5</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>nunca vou perdoar brasileiro nunca</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>RT @ZAMENZA: "Eu tava na etapa de selecao e falaram 'nossa, voce vai ser comparada a Juliette'. (Eslo)
+ATE A PRODUCAO FEZ ISSO.... #BBB22...</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>RT @ZAMENZA: "Eu tava na etapa de selecao e falaram 'nossa, voce vai ser comparada a Juliette'. (Eslo)
+ATE A PRODUCAO FEZ ISSO.... #BBB22...</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>tava etapa selecao falaram comparada juliette eslo producao</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RT @bIsnkspace: nem gustavo, nem pa. ele fez o melhor video! #BBB22 https://t.co/8ifDVXz97W</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>RT @bIsnkspace: nem gustavo, nem pa. ele fez o melhor video! #BBB22 https://t.co/8ifDVXz97W</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>gustavo pa melhor video</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Igrejas deveriam ser obrigadas a terem isolamento acustico
+#BBB22</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Igrejas deveriam ser obrigadas a terem isolamento acustico
+#BBB22</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>igrejas deveriam obrigadas terem isolamento acustico</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RT @eeuscarlett: Arthur,PA,Dg e Scooby contra o resto da casa!
+Sim to do lado da "macholandia",ngm mandou o Boninho montar um elenco femin...</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>RT @eeuscarlett: Arthur,PA,Dg e Scooby contra o resto da casa!
+Sim to do lado da "macholandia",ngm mandou o Boninho montar um elenco femin...</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>arthur pa dg scooby contra resto casa sim lado macholandia ngm mandou boninho montar elenco femin</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>RT @moskito: A globo simplesmente desistiu de produzir o #BBB22 https://t.co/GmTCRSxg6l</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>RT @moskito: A globo simplesmente desistiu de produzir o #BBB22 https://t.co/GmTCRSxg6l</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>globo simplesmente desistiu produzir</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>RT @ZAMENZA: "Prefiro ser indicado pelo Lucas. E chato disputar o Bate e Volta. Ja fiquei dois meses aqui, ja ta bom." (Scooby)
+ME PERDOA,...</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>RT @ZAMENZA: "Prefiro ser indicado pelo Lucas. E chato disputar o Bate e Volta. Ja fiquei dois meses aqui, ja ta bom." (Scooby)
+ME PERDOA,...</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>prefiro indicado lucas chato disputar bate volta fiquei dois meses bom scooby perdoa</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>RT @diferentonabr: Entendi porque o casal deu certo na casa #BBB22 https://t.co/0gbmAgYTPF</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>RT @diferentonabr: Entendi porque o casal deu certo na casa #BBB22 https://t.co/0gbmAgYTPF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>entendi casal certo casa</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>RT @tracklist: A emocao da Jessi inaugurando no VIP apos 7 semanas na Xepa  #BBB22 https://t.co/aaZ3qmcPus</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>RT @tracklist: A emocao da Jessi inaugurando no VIP apos 7 semanas na Xepa  #BBB22 https://t.co/aaZ3qmcPus</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>emocao jessi inaugurando vip apos 7 semanas xepa</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>RT @paiva: "nao to descrevendo o eli"
+*descreve o eli* #bbb22 https://t.co/e84pvNdGu8</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>RT @paiva: "nao to descrevendo o eli"
+*descreve o eli* #bbb22 https://t.co/e84pvNdGu8</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>descrevendo eli descreve eli</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Nao importa o que o bom coracao do Lucas achou certo falar pro dementarthur sugador de alma
+ importa o que a gente... https://t.co/EyFLguQAli</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Nao importa o que o bom coracao do Lucas achou certo falar pro dementarthur sugador de alma
+ importa o que a gente... https://t.co/EyFLguQAli</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>importa bom coracao lucas achou certo falar dementarthur sugador alma importa</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>RT @Dantinhas: Durmam bem #BBB22  https://t.co/haotGHy6VU</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>RT @Dantinhas: Durmam bem #BBB22  https://t.co/haotGHy6VU</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>durmam</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>RT @idiWota: E se a saudade apertar, procure no ceu a estrela que mais brilhar. Ela sera o meu olhar. 
+Paulo e Jade | Jadre | fanart
+#BBB...</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>RT @idiWota: E se a saudade apertar, procure no ceu a estrela que mais brilhar. Ela sera o meu olhar. 
+Paulo e Jade | Jadre | fanart
+#BBB...</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>saudade apertar procure ceu estrela brilhar sera olhar paulo jade jadre fanart</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>RT @tracklist: 2) Tweet especial para mostrar a reacao da Lina vendo a Liniker chegando no palco do #BBB22 https://t.co/TFvmpbL6le</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>RT @tracklist: 2) Tweet especial para mostrar a reacao da Lina vendo a Liniker chegando no palco do #BBB22 https://t.co/TFvmpbL6le</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2 tweet especial mostrar reacao lina vendo liniker chegando palco</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>RT @_agoranatv: To passando mal de rir com o papo do DG com Scooby e PA sobre farofa de sauva, limonada e aborigenes na Australia hahahaha...</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>RT @_agoranatv: To passando mal de rir com o papo do DG com Scooby e PA sobre farofa de sauva, limonada e aborigenes na Australia hahahaha...</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>passando mal rir papo dg scooby pa farofa sauva limonada aborigenes australia hahahaha</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>RT @tvglobo: A licao que fica: nunca comemore antes do resultado.  #BBB22 https://t.co/2d16O9EqMq</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>RT @tvglobo: A licao que fica: nunca comemore antes do resultado.  #BBB22 https://t.co/2d16O9EqMq</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>licao fica nunca comemore antes resultado</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>RT @Aguiarthur: Raio-x do Arthur de hoje (13/03) #TeamAguiar #BBB22 https://t.co/Ae339cKnkk</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>RT @Aguiarthur: Raio-x do Arthur de hoje (13/03) #TeamAguiar #BBB22 https://t.co/Ae339cKnkk</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>raio x arthur hoje 13 03</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>RT @SoyEllen1: "o amor e uma escolha e nao uma necessidade" -2021 (Marilia Mendonca)
+"uma vez uma amiga me disse que o amor e uma escolha...</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>RT @SoyEllen1: "o amor e uma escolha e nao uma necessidade" -2021 (Marilia Mendonca)
+"uma vez uma amiga me disse que o amor e uma escolha...</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>amor escolha necessidade 2021 marilia mendonca vez amiga disse amor escolha</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>RT @nirebeca21: Quero o maximo de Rts aqui!! #BBB22 
+#PremiosLikesBrasil #DayaneMello</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>RT @nirebeca21: Quero o maximo de Rts aqui!! #BBB22 
+#PremiosLikesBrasil #DayaneMello</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>quero maximo rts</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>RT @letsbabyx: a amizade de milhoes deles, os maiores da edicao
+(Arthur e PA) #BBB22 https://t.co/YFHUD6Xk1k</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>RT @letsbabyx: a amizade de milhoes deles, os maiores da edicao
+(Arthur e PA) #BBB22 https://t.co/YFHUD6Xk1k</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>amizade milhoes maiores edicao arthur pa</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Vinicius: "Sonhei que o Big Fone ia tocar hoje" 
+Eslovenia: "Quem atendia?" 
+ https://t.co/4kPxQAkkqA
+#BBB22... https://t.co/KQ61JnfjVJ</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Vinicius: "Sonhei que o Big Fone ia tocar hoje" 
+Eslovenia: "Quem atendia?" 
+ https://t.co/4kPxQAkkqA
+#BBB22... https://t.co/KQ61JnfjVJ</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>vinicius sonhei big fone ia tocar hoje eslovenia atendia</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>RT @iampauloandre: Quase 06h e eles na pixxta  @Silva_DG #BBB22 #PAFest https://t.co/MkRtOm01jX</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>RT @iampauloandre: Quase 06h e eles na pixxta  @Silva_DG #BBB22 #PAFest https://t.co/MkRtOm01jX</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>quase 06h pixxta dg</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>RT @TaisaComenta: Pra mim Lucas e Gustavo ta seguindo a linha da Jade, pegou ranco do arthur so depois q juntou com lollipop, antes o cara...</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>RT @TaisaComenta: Pra mim Lucas e Gustavo ta seguindo a linha da Jade, pegou ranco do arthur so depois q juntou com lollipop, antes o cara...</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>lucas gustavo seguindo linha jade pegou ranco arthur juntou lollipop antes cara</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>O que voces acham disso aqui?
+#BBB22 https://t.co/Rpv1z9uwoT</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>O que voces acham disso aqui?
+#BBB22 https://t.co/Rpv1z9uwoT</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>acham disso</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>RT @bchartsnet: A falta de respeito de ver o show de outra pessoa e ficar no fundo fazendo cara de tedio... #BBB22</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>RT @bchartsnet: A falta de respeito de ver o show de outra pessoa e ficar no fundo fazendo cara de tedio... #BBB22</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>falta respeito ver show pessoa ficar fundo fazendo cara tedio</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Ultima festa da jade  #bbb22 https://t.co/DZfRuVEOH5</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Ultima festa da jade  #bbb22 https://t.co/DZfRuVEOH5</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>ultima festa jade</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>RT @infos_aguiar: Boom dia , que sorriso maravilhoso do nosso menino!  #BBB22 #TeamArthur https://t.co/qTRuC1ThzL</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>RT @infos_aguiar: Boom dia , que sorriso maravilhoso do nosso menino!  #BBB22 #TeamArthur https://t.co/qTRuC1ThzL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>boom dia sorriso maravilhoso menino</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>RT @iampauloandre: "PEAZINHO, SUA FAMILIA, SEUS AMIGOS, SEUS FAS TEM MUITO ORGULHO DE VOCE. NOSSO LIDER" era so essa mensagem que a gente q...</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>RT @iampauloandre: "PEAZINHO, SUA FAMILIA, SEUS AMIGOS, SEUS FAS TEM MUITO ORGULHO DE VOCE. NOSSO LIDER" era so essa mensagem que a gente q...</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>peazinho familia amigos fas orgulho lider mensagem</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>RT @o_andre_vieira: #FORAESLOVENIA #BBB22
+E o Marquito foi pego no pulo contra o Arthur.
+Tentando justificar mas nao rolou!
+ http...</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>RT @o_andre_vieira: #FORAESLOVENIA #BBB22
+E o Marquito foi pego no pulo contra o Arthur.
+Tentando justificar mas nao rolou!
+ http...</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>marquito pego pulo contra arthur tentando justificar rolou</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Porra ja e quase 12 horas cade o pessoal na academia jogando com os bonequinhos! #bbb22</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Porra ja e quase 12 horas cade o pessoal na academia jogando com os bonequinhos! #bbb22</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>porra quase 12 horas cade pessoal academia jogando bonequinhos</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>RT @oppscausey: Lucas sobre Eli "Ele e ingenuo, sonso, mas vejo que tem um coracao bom. Falou merda mas vou superar isso. Ja os moleques de...</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>RT @oppscausey: Lucas sobre Eli "Ele e ingenuo, sonso, mas vejo que tem um coracao bom. Falou merda mas vou superar isso. Ja os moleques de...</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>lucas eli ingenuo sonso vejo coracao bom falou merda vou superar moleques</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>E isso ai gente, to soltando a mao desse BBB, estamos nos segurando so pelo dedo mindinho, fiquem com a thread da... https://t.co/rCe3zYXhdO</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>E isso ai gente, to soltando a mao desse BBB, estamos nos segurando so pelo dedo mindinho, fiquem com a thread da... https://t.co/rCe3zYXhdO</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>soltando mao segurando dedo mindinho fiquem thread</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>RT @tracklist: A cara da Natalia e do Lucas vendo o Vyni "pedir" o monstro. #BBB22 https://t.co/NZynjo8brG</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>RT @tracklist: A cara da Natalia e do Lucas vendo o Vyni "pedir" o monstro. #BBB22 https://t.co/NZynjo8brG</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>cara natalia lucas vendo vyni pedir monstro</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>RT @bbb_storm: Vamos unir as torcidas  e eliminar o resto casa? Agora e a hora. Deem FAV e RT. Vamos p/ cima! #BBB22</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>RT @bbb_storm: Vamos unir as torcidas  e eliminar o resto casa? Agora e a hora. Deem FAV e RT. Vamos p/ cima! #BBB22</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>vamos unir torcidas eliminar resto casa hora deem fav vamos p cima</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>RT @ChiaraGibbin: Super Bad Nat unica mulher a ficar 24 horas na prova, dancando todas na pista e os hates que lutem! #BBB22</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>RT @ChiaraGibbin: Super Bad Nat unica mulher a ficar 24 horas na prova, dancando todas na pista e os hates que lutem! #BBB22</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>super bad nat unica mulher ficar 24 horas prova dancando todas pista hates lutem</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>O maior erro dos participantes do BBB e ir com medo de cancelamento. Galera so quer saber de publi e ganhar seguidor aqui fora. 
+#BBB22</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>O maior erro dos participantes do BBB e ir com medo de cancelamento. Galera so quer saber de publi e ganhar seguidor aqui fora. 
+#BBB22</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>maior erro participantes ir medo cancelamento galera saber publi ganhar seguidor</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>RT @Guilopesf: Perdeu a prova de resistencia em um sorteio depois de ficar 24 horas. Perde a prova do anjo no final e mesmo assim fica feli...</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>RT @Guilopesf: Perdeu a prova de resistencia em um sorteio depois de ficar 24 horas. Perde a prova do anjo no final e mesmo assim fica feli...</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>perdeu prova resistencia sorteio ficar 24 horas perde prova anjo final assim fica feli</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>RT @eliezervidal: Vyni e um festival d cliches ambulante c piadas velhas, frases d efeito ruins, pouquissima criatividade e muito deboche d...</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>RT @eliezervidal: Vyni e um festival d cliches ambulante c piadas velhas, frases d efeito ruins, pouquissima criatividade e muito deboche d...</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>vyni festival d cliches ambulante c piadas velhas frases d efeito ruins pouquissima criatividade deboche d</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>RT @GustavoMenegoto: A cara do Lucas e Nathalia ao verem o Vyni pedindo o monstro pq o Eli foi escolhido kkkkk #BBB22 
+#FORAESLOVENIA / Se...</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>RT @GustavoMenegoto: A cara do Lucas e Nathalia ao verem o Vyni pedindo o monstro pq o Eli foi escolhido kkkkk #BBB22 
+#FORAESLOVENIA / Se...</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>cara lucas nathalia verem vyni pedindo monstro eli escolhido</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>RT @eloobritto: "o amor e uma escolha, nao e uma necessidade. gosto de voce, mas eu nao preciso de voce." - marilia mendonca 
+pra sempre a...</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>RT @eloobritto: "o amor e uma escolha, nao e uma necessidade. gosto de voce, mas eu nao preciso de voce." - marilia mendonca 
+pra sempre a...</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>amor escolha necessidade gosto preciso marilia mendonca sempre</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>RT @tracklist: Separados por uma edicao de BBB. #BBB22 https://t.co/ghZDXQBGSY</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>RT @tracklist: Separados por uma edicao de BBB. #BBB22 https://t.co/ghZDXQBGSY</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>separados edicao</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>RT @gabrielamurad19: A saida da jade foi como arrancar o protagonista de uma serie. Voce nao sabe o final e nao faz sentido continuar vendo...</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>RT @gabrielamurad19: A saida da jade foi como arrancar o protagonista de uma serie. Voce nao sabe o final e nao faz sentido continuar vendo...</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>saida jade arrancar protagonista serie sabe final faz sentido continuar vendo</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>RT @LucasBissoli_: Melhor eu ir e tchau, melhor o final... #bbb22 https://t.co/UiQsjU1SIf</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>RT @LucasBissoli_: Melhor eu ir e tchau, melhor o final... #bbb22 https://t.co/UiQsjU1SIf</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>melhor ir tchau melhor final</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>RT @iampauloandre: Alo, alo quem ta ai acordado com a adm? #BBB22 https://t.co/ac3Dw4LmNJ</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>RT @iampauloandre: Alo, alo quem ta ai acordado com a adm? #BBB22 https://t.co/ac3Dw4LmNJ</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>alo alo acordado adm</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>RT @comentaagabii_: O Arthur entregou tudo ontem na festa , peticao pra ele beber nas festas e virar dancarino sempre hahaha @Aguiarthur #...</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>RT @comentaagabii_: O Arthur entregou tudo ontem na festa , peticao pra ele beber nas festas e virar dancarino sempre hahaha @Aguiarthur #...</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>arthur entregou tudo ontem festa peticao beber festas virar dancarino sempre hahaha</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>RT @ZAMENZA: "Lina, to muito feliz por voce. Eu vi o quanto voce ficou feliz." (Lucas)
+Ta explicada a emocao dele. #BBB22 https://t.co/mwJ...</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>RT @ZAMENZA: "Lina, to muito feliz por voce. Eu vi o quanto voce ficou feliz." (Lucas)
+Ta explicada a emocao dele. #BBB22 https://t.co/mwJ...</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>lina feliz vi quanto ficou feliz lucas explicada emocao</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>RT @izzzzzz52: O Lucas tava o Alex do Madagascar purinho quando ficou com fome e cansado, alucinadooooo  #bbb22 https://t.co/59j7ErZ0l4</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>RT @izzzzzz52: O Lucas tava o Alex do Madagascar purinho quando ficou com fome e cansado, alucinadooooo  #bbb22 https://t.co/59j7ErZ0l4</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>lucas tava alex madagascar purinho ficou fome cansado alucinadooooo</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>RT @iampauloandre: Bom diaaaaa bandeirinhas!! Um otimo domingo para todos voces!!  #BBB22</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>RT @iampauloandre: Bom diaaaaa bandeirinhas!! Um otimo domingo para todos voces!!  #BBB22</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>bom diaaaaa bandeirinhas otimo domingo todos</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>O Lucas e burro msm de achar o Eli ingenuo, ou ta so jogando isso pro publico pra ver se cola ele indicar os meninos?  #BBB22</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>O Lucas e burro msm de achar o Eli ingenuo, ou ta so jogando isso pro publico pra ver se cola ele indicar os meninos?  #BBB22</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>lucas burro msm achar eli ingenuo jogando publico ver cola indicar meninos</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>#BBB22
+Lais e fraca por causa da falsidade dela. Ninguem, com minimo de nocao, gosta disso. https://t.co/95G9mtMaJk</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>#BBB22
+Lais e fraca por causa da falsidade dela. Ninguem, com minimo de nocao, gosta disso. https://t.co/95G9mtMaJk</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>lais fraca causa falsidade ninguem minimo nocao gosta disso</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>RT @patrickmortis: Refrescando a memoria dos haters... Eu mesmo tweetei sobre a articulacao do Lucas e Gustavo contra o Tiago (descumprindo...</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>RT @patrickmortis: Refrescando a memoria dos haters... Eu mesmo tweetei sobre a articulacao do Lucas e Gustavo contra o Tiago (descumprindo...</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>refrescando memoria haters tweetei articulacao lucas gustavo contra tiago descumprindo</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>RT @bbb_storm: Lucas disse que vai "fazer historia no BBB", podem rir, a piada e essa mesmo. #BBB22</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>RT @bbb_storm: Lucas disse que vai "fazer historia no BBB", podem rir, a piada e essa mesmo. #BBB22</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>lucas disse fazer historia podem rir piada</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>RT @momentsreality_: lucas e gustavo informaram que ali nao e as olimpiadas pro PA achar que  ganharia a prova de resistencia 
+ai ai, que...</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>RT @momentsreality_: lucas e gustavo informaram que ali nao e as olimpiadas pro PA achar que  ganharia a prova de resistencia 
+ai ai, que...</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>lucas gustavo informaram ali olimpiadas pa achar ganharia prova resistencia</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>RT @eitabu_uh: Desculpa lais mas a unica coisa que importa pra gente sao as atitudes DENTRO do jogo e e isso. Por isso Arthur sera o venced...</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>RT @eitabu_uh: Desculpa lais mas a unica coisa que importa pra gente sao as atitudes DENTRO do jogo e e isso. Por isso Arthur sera o venced...</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>desculpa lais unica coisa importa atitudes dentro jogo arthur sera venced</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>RT @thewestknd: morri com o arthur na festa chamando a eslo de eslovaquia, tunisia, dinamarca e equador kkkkkkkkkkkkk PETICAO THURRA, BEBA...</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>RT @thewestknd: morri com o arthur na festa chamando a eslo de eslovaquia, tunisia, dinamarca e equador kkkkkkkkkkkkk PETICAO THURRA, BEBA...</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>morri arthur festa chamando eslo eslovaquia tunisia dinamarca equador kkkkkkkkkkkkk peticao thurra beba</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>RT @park_jehminie: A gente precisa ser inteligente e se ligar em quem mais ameaca o jogo do Tuty viu torcida? O Eliezer e um merda q todo m...</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>RT @park_jehminie: A gente precisa ser inteligente e se ligar em quem mais ameaca o jogo do Tuty viu torcida? O Eliezer e um merda q todo m...</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>precisa inteligente ligar ameaca jogo tuty viu torcida eliezer merda m</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>RT @Dantinhas: Auuuuuuu late coracao cachorro late coracao #BBB22 https://t.co/tkSqb94kVq</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>RT @Dantinhas: Auuuuuuu late coracao cachorro late coracao #BBB22 https://t.co/tkSqb94kVq</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>auuuuuuu late coracao cachorro late coracao</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>RT @equipeeslovenia: Eslo cantando "Penhasco" 
+#BBB22 #TimeEslo https://t.co/nBADpBvacx</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>RT @equipeeslovenia: Eslo cantando "Penhasco" 
+#BBB22 #TimeEslo https://t.co/nBADpBvacx</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>eslo cantando penhasco</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>RT @Rafaelbarboosa: A Lais largou um foda-se o Brasil, preparados pra eliminar ela com maior indice de rejeicao?  #bbb22</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>RT @Rafaelbarboosa: A Lais largou um foda-se o Brasil, preparados pra eliminar ela com maior indice de rejeicao?  #bbb22</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>lais largou foda brasil preparados eliminar maior indice rejeicao</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>RT @Dantinhas: Lucas jurando lealdade ao Gustavo e que gosta muito dele. Ja vimos isso antes? #BBB22 https://t.co/4xMscn4YYZ</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>RT @Dantinhas: Lucas jurando lealdade ao Gustavo e que gosta muito dele. Ja vimos isso antes? #BBB22 https://t.co/4xMscn4YYZ</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>lucas jurando lealdade gustavo gosta vimos antes</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Ainda sobre o monstro! #BBB22 https://t.co/zJVIzedezH</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Ainda sobre o monstro! #BBB22 https://t.co/zJVIzedezH</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>ainda monstro</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>RT @guaitay: lais "sabe qual o peso de ser tida como fraca?"
+eslo "sabe qual o peso de ser comparada?"
+vyni "sabe qual o peso de nao poder...</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>RT @guaitay: lais "sabe qual o peso de ser tida como fraca?"
+eslo "sabe qual o peso de ser comparada?"
+vyni "sabe qual o peso de nao poder...</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>lais sabe peso tida fraca eslo sabe peso comparada vyni sabe peso poder</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>RT @rossmotv: o campeao dessa edicao sai daqui o 
+adoro ver os invejosos se mordendo KKKKK
+Arthur, PA, Scooby e DG: e vcss caralho ...</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>RT @rossmotv: o campeao dessa edicao sai daqui o 
+adoro ver os invejosos se mordendo KKKKK
+Arthur, PA, Scooby e DG: e vcss caralho ...</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>campeao dessa edicao sai daqui adoro ver invejosos mordendo arthur pa scooby dg vcss caralho</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>RT @CentralReaIity: Passada, chocada que Arthur bebado e bem mais legal que sobrio. Tem como beber em toda festa, Thuty? #BBB22</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>RT @CentralReaIity: Passada, chocada que Arthur bebado e bem mais legal que sobrio. Tem como beber em toda festa, Thuty? #BBB22</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>passada chocada arthur bebado legal sobrio beber toda festa thuty</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Domingo e dia de... CUPOM!!!!!
+Insira o cupom APPL470 no app americanas e ganhe R$10 de desconto em compras aci... https://t.co/WnRbNjjnzw</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Domingo e dia de... CUPOM!!!!!
+Insira o cupom APPL470 no app americanas e ganhe R$10 de desconto em compras aci... https://t.co/WnRbNjjnzw</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>domingo dia cupom insira cupom appl470 app americanas ganhe r 10 desconto compras aci</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>RT @camilacomentaa: Nosso dancarino, nosso jogador, nosso campeao! Arthura ou surta!  #BBB22 https://t.co/QpmI2FToVt</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>RT @camilacomentaa: Nosso dancarino, nosso jogador, nosso campeao! Arthura ou surta!  #BBB22 https://t.co/QpmI2FToVt</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>dancarino jogador campeao arthura surta</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>RT @omeuluar: Lucas e um falso, pqp! Na frente do Arthur agradeceu, disse que o Arthur deu a maior forca e agora ta fazendo a caveira dele....</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>RT @omeuluar: Lucas e um falso, pqp! Na frente do Arthur agradeceu, disse que o Arthur deu a maior forca e agora ta fazendo a caveira dele....</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>lucas falso pqp frente arthur agradeceu disse arthur maior forca fazendo caveira</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>RT @gabrielamurad19: So avisando a torcida: se o scobby for pro paredao, iremos lutar como se fosse a jade e o PA. #BBB22 se preparem</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>RT @gabrielamurad19: So avisando a torcida: se o scobby for pro paredao, iremos lutar como se fosse a jade e o PA. #BBB22 se preparem</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>avisando torcida scobby paredao iremos lutar jade pa preparem</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>RT @fefito: Alguem precisa eliminar o Eliezer para dar ao Vyni alguma chance de construir a propria historia. Ta depre de assistir. Ele e b...</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>RT @fefito: Alguem precisa eliminar o Eliezer para dar ao Vyni alguma chance de construir a propria historia. Ta depre de assistir. Ele e b...</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>alguem precisa eliminar eliezer vyni alguma chance construir propria historia depre assistir b</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Imagina o PA virando cantor de pagodinho?  #bbb22</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Imagina o PA virando cantor de pagodinho?  #bbb22</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>imagina pa virando cantor pagodinho</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>RT @xrealityb: a foto para deixarmos em preto e branco foi atualizada com sucesso #BBB22 https://t.co/kDFAHl1Cif</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>RT @xrealityb: a foto para deixarmos em preto e branco foi atualizada com sucesso #BBB22 https://t.co/kDFAHl1Cif</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>foto deixarmos preto branco atualizada sucesso</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>RT @_respiroluar: Gustavo e Larissa foram as piores apostas dessa edicao, eu sabia desde o inicio que seria fracasso. Falta de aviso nao fo...</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>RT @_respiroluar: Gustavo e Larissa foram as piores apostas dessa edicao, eu sabia desde o inicio que seria fracasso. Falta de aviso nao fo...</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>gustavo larissa piores apostas dessa edicao sabia inicio fracasso falta aviso fo</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>RT @brunaamamj: Lucas e Gustavo descendo a lenha no Arthur e no PA agora. Acho engracado que esse povo tem problemas com o Arthur e nunca f...</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>RT @brunaamamj: Lucas e Gustavo descendo a lenha no Arthur e no PA agora. Acho engracado que esse povo tem problemas com o Arthur e nunca f...</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>lucas gustavo descendo lenha arthur pa engracado povo problemas arthur nunca f</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Vendo a edicao de ontem so tenho uma coisa pra dizer: Barao da Burricezinha #BBB22</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Vendo a edicao de ontem so tenho uma coisa pra dizer: Barao da Burricezinha #BBB22</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>vendo edicao ontem coisa dizer barao burricezinha</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>RT @ecspinto: Primeiro bbb da historia que eu to torcendo para um grupo que tem 4 machos e nenhuma mulher! E vamos de Arthur, PA, Dg e Scoo...</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>RT @ecspinto: Primeiro bbb da historia que eu to torcendo para um grupo que tem 4 machos e nenhuma mulher! E vamos de Arthur, PA, Dg e Scoo...</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>primeiro historia torcendo grupo 4 machos nenhuma mulher vamos arthur pa dg scoo</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Sinceridade acima de tudo  #BBB22 https://t.co/IBU01DrVvq</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Sinceridade acima de tudo  #BBB22 https://t.co/IBU01DrVvq</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>sinceridade acima tudo</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Ui ui ui ninguem pode tocar no intocavel do arthurzinho 
+ah vai se fod*r torcida chata pra cacete #BBB22 https://t.co/Epzv9vjcor</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Ui ui ui ninguem pode tocar no intocavel do arthurzinho 
+ah vai se fod*r torcida chata pra cacete #BBB22 https://t.co/Epzv9vjcor</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>ui ui ui ninguem pode tocar intocavel arthurzinho fod r torcida chata cacete</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Caso o Eli saia...o Viny acorda pra vida ,ou nao tem mais solucao?!... No fundo morro de do dele iludido e apagado... #BBB22</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Caso o Eli saia...o Viny acorda pra vida ,ou nao tem mais solucao?!... No fundo morro de do dele iludido e apagado... #BBB22</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>caso eli saia viny acorda vida solucao fundo morro iludido apagado</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>RT @pqp_dann: A Disney e a personificacao da hipocrisia. Eles podem fazer absolutamente tudo, mas se alguem fizer algo parecido eles critic...</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>RT @pqp_dann: A Disney e a personificacao da hipocrisia. Eles podem fazer absolutamente tudo, mas se alguem fizer algo parecido eles critic...</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>disney personificacao hipocrisia podem fazer absolutamente tudo alguem fizer algo parecido critic</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>RT @iamtyz: @Dantinhas Lucas na frente e uma coisa nas COSTAS e todo mafioso, tenta ne? Pq Ele e Arthur comentaram sobre isso, e ele falou...</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>RT @iamtyz: @Dantinhas Lucas na frente e uma coisa nas COSTAS e todo mafioso, tenta ne? Pq Ele e Arthur comentaram sobre isso, e ele falou...</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>lucas frente coisa costas mafioso tenta arthur comentaram falou</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>RT @CentralReaIity: Eslovenia dizendo que tem medo de estar decepcionando a familia dela.
+Lucas disse que a familia deles conhecem os defe...</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>RT @CentralReaIity: Eslovenia dizendo que tem medo de estar decepcionando a familia dela.
+Lucas disse que a familia deles conhecem os defe...</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>eslovenia dizendo medo estar decepcionando familia lucas disse familia conhecem defe</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>RT @vaidesmaiar: Gustavo dizendo que o santo dele nao bateu com o do Arthur #bbb22</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>RT @vaidesmaiar: Gustavo dizendo que o santo dele nao bateu com o do Arthur #bbb22</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>gustavo dizendo santo bateu arthur</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>RT @CentralReaIity: Gil e Juliette sao dois dos participantes mais iconicos em 21 edicoes do BBB. Donos do carisma. Vai demorar um pouquinh...</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>RT @CentralReaIity: Gil e Juliette sao dois dos participantes mais iconicos em 21 edicoes do BBB. Donos do carisma. Vai demorar um pouquinh...</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>gil juliette dois participantes iconicos 21 edicoes donos carisma demorar pouquinh</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>RT @gabrielamurad19: E cada dia que passa, mais gnt me manda mensagem falando que deixou o odio falar mais alto votando na jade e que estao...</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>RT @gabrielamurad19: E cada dia que passa, mais gnt me manda mensagem falando que deixou o odio falar mais alto votando na jade e que estao...</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>dia passa gnt manda mensagem falando deixou odio falar alto votando jade estao</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>RT @bbb: Resumo #BBB22: show de Luisa Sonza e Liniker, choro, desabafos e votos marcam a festa  https://t.co/688TB9Iu5y #RedeBBB https://t...</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>RT @bbb: Resumo #BBB22: show de Luisa Sonza e Liniker, choro, desabafos e votos marcam a festa  https://t.co/688TB9Iu5y #RedeBBB https://t...</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>resumo show luisa sonza liniker choro desabafos votos marcam festa</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>RT @PaolaDeboche: Desculpa mas a mae aqui sempre preferiu a Macholandia. #BBB22 https://t.co/NyspXlSgZh</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>RT @PaolaDeboche: Desculpa mas a mae aqui sempre preferiu a Macholandia. #BBB22 https://t.co/NyspXlSgZh</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>desculpa mae sempre preferiu macholandia</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ImperioRenault_ Para mim um dos dois sera o vencedor do #BBB22 </t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">@ImperioRenault_ Para mim um dos dois sera o vencedor do #BBB22 </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>dois sera vencedor</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>RT @vaidesmaiar: Esse elenco nao merece NENHUM show que teve nessa edicao. NENHUM. #BBB22</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>RT @vaidesmaiar: Esse elenco nao merece NENHUM show que teve nessa edicao. NENHUM. #BBB22</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>elenco merece nenhum show nessa edicao nenhum</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>RT @morangoraiz: E isso aqui , me falaram que essa foto e verdadeira kkkkkkkk
+#BBB22 #BigBrotherBrasil #FORAESLOVENIA 
+Eslo e Lais , Lucas...</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>RT @morangoraiz: E isso aqui , me falaram que essa foto e verdadeira kkkkkkkk
+#BBB22 #BigBrotherBrasil #FORAESLOVENIA 
+Eslo e Lais , Lucas...</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>falaram foto verdadeira kkkkkkkk eslo lais lucas</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>@showdavida Por que a Globo acha que voce tambem nao pode ficar sabendo disso? 
+https://t.co/hbzMkeGA4k #Fantastico #BBB22</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>@showdavida Por que a Globo acha que voce tambem nao pode ficar sabendo disso? 
+https://t.co/hbzMkeGA4k #Fantastico #BBB22</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>globo acha tambem pode ficar sabendo disso</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>RT @bbb: Gustavo: "E o cheirinho dessa cama ai, PA? O que voce esta sentindo?" 
+Paulo Andre: "Estou sentindo cheirinho de Paredao" 
+ ht...</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>RT @bbb: Gustavo: "E o cheirinho dessa cama ai, PA? O que voce esta sentindo?" 
+Paulo Andre: "Estou sentindo cheirinho de Paredao" 
+ ht...</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>gustavo cheirinho dessa cama pa sentindo paulo andre sentindo cheirinho paredao ht</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>RT @sonsademaiss: Todo mundo concorda que o Gustavo e interesseiro ne? Se um dos quatro da Disney e lider ele ta colado la, esse semana o L...</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>RT @sonsademaiss: Todo mundo concorda que o Gustavo e interesseiro ne? Se um dos quatro da Disney e lider ele ta colado la, esse semana o L...</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>mundo concorda gustavo interesseiro quatro disney lider colado semana l</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>RT @oisourodz: Luisa entregando tudo com a coreografia de anaconda e o povo morto???? MEU DEUS REAGE BONINHO essa edicao nao sabe aproveita...</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>RT @oisourodz: Luisa entregando tudo com a coreografia de anaconda e o povo morto???? MEU DEUS REAGE BONINHO essa edicao nao sabe aproveita...</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>luisa entregando tudo coreografia anaconda povo morto deus reage boninho edicao sabe aproveita</t>
+        </is>
       </c>
     </row>
   </sheetData>
